--- a/assets/conversation/Future-Perfect.xlsx
+++ b/assets/conversation/Future-Perfect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\เบ็ดเตล็ด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\assets\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2DBC9-CBF9-4CEA-A177-FB2FB5B06929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC58E3F9-995E-4785-A892-80873624A398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D708A4B-F7D2-4770-B5B3-44B82C3467C5}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{1D708A4B-F7D2-4770-B5B3-44B82C3467C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -62,45 +62,18 @@
     <t>Yes, I've actually been taking art classes in my spare time. I think it would be great to create the illustrations myself.</t>
   </si>
   <si>
-    <t>By the time I finish my master's degree, I will have published two research papers. My advisor is very pleased with my progress.</t>
-  </si>
-  <si>
-    <t>Yes, I'm hoping to get a job at a top university.</t>
-  </si>
-  <si>
-    <t>I know, it feels like we've been stuck in a rut lately. But I think this new chapter will bring new opportunities and experiences.</t>
-  </si>
-  <si>
-    <t>Definitely. And by the time we move out, I will have finished my master's degree and will be starting my career as a software engineer.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oh no, that's quite a prediction! What's gotten into you? You've been doing so well with your diet lately. </t>
   </si>
   <si>
     <t>That's impressive! I'm not sure if that's something to brag about, but I'm jealous. I will have been working non-stop for the past few years and will be looking forward to some well-deserved relaxation.</t>
   </si>
   <si>
-    <t>Oh no, you're going to give me a food coma just thinking about it! Avocado toast, weird food trends... you're a force to be reckoned with!</t>
-  </si>
-  <si>
-    <t>Hey, someone's gotta keep the culinary scene interesting, right? By the end of the year, I'll have tried everything from bug-based burgers to mealworm-infused ice cream.</t>
-  </si>
-  <si>
     <t>Whoa, you're really going for it, aren't you? A small pool of coffee is a lot of caffeine!</t>
   </si>
   <si>
-    <t>You're really getting into the whole cat obsession thing, aren't you? By next summer, you'll be a certified cat expert!</t>
-  </si>
-  <si>
-    <t>You have no idea! By then, I'll have watched so many cat videos that I'll be able to recite every cat fact known to man. My cat expertise will be unmatched!</t>
-  </si>
-  <si>
     <t>That's great! We can take amazing pictures together.</t>
   </si>
   <si>
-    <t>finishing</t>
-  </si>
-  <si>
     <t>finished</t>
   </si>
   <si>
@@ -130,9 +103,6 @@
     </r>
   </si>
   <si>
-    <t>has</t>
-  </si>
-  <si>
     <t>have</t>
   </si>
   <si>
@@ -194,9 +164,6 @@
     </r>
   </si>
   <si>
-    <t>had</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">I'm thinking of taking a trip to France to practice his language skills. He will </t>
     </r>
@@ -223,15 +190,9 @@
     </r>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>learned</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
     <t>lived</t>
   </si>
   <si>
@@ -287,9 +248,6 @@
     </r>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
     <t>played</t>
   </si>
   <si>
@@ -319,9 +277,6 @@
     </r>
   </si>
   <si>
-    <t>presents</t>
-  </si>
-  <si>
     <t>presented</t>
   </si>
   <si>
@@ -351,9 +306,6 @@
     </r>
   </si>
   <si>
-    <t>putted</t>
-  </si>
-  <si>
     <t>put</t>
   </si>
   <si>
@@ -409,15 +361,9 @@
     </r>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>saved</t>
   </si>
   <si>
-    <t>saving</t>
-  </si>
-  <si>
     <r>
       <t>By next year, I will have</t>
     </r>
@@ -444,9 +390,6 @@
     </r>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
@@ -476,9 +419,6 @@
     </r>
   </si>
   <si>
-    <t>find</t>
-  </si>
-  <si>
     <t>found</t>
   </si>
   <si>
@@ -508,9 +448,6 @@
     </r>
   </si>
   <si>
-    <t>took</t>
-  </si>
-  <si>
     <t>taken</t>
   </si>
   <si>
@@ -566,9 +503,6 @@
     </r>
   </si>
   <si>
-    <t>Has</t>
-  </si>
-  <si>
     <t>Have</t>
   </si>
   <si>
@@ -598,41 +532,6 @@
     </r>
   </si>
   <si>
-    <t>gain</t>
-  </si>
-  <si>
-    <t>gained</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Congratulations! You will have </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a lot of experience by then and will be well-prepared for your next step. </t>
-    </r>
-  </si>
-  <si>
-    <t>earning</t>
-  </si>
-  <si>
     <t>earned</t>
   </si>
   <si>
@@ -688,38 +587,6 @@
     </r>
   </si>
   <si>
-    <t>lives</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We've been living in this apartment for two years now. By next summer, we will have </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> here for three years and will be ready to move on to a new chapter in our lives.</t>
-    </r>
-  </si>
-  <si>
-    <t>ate</t>
-  </si>
-  <si>
     <t>eaten</t>
   </si>
   <si>
@@ -752,9 +619,6 @@
     <t>celebrated</t>
   </si>
   <si>
-    <t>celebrating</t>
-  </si>
-  <si>
     <r>
       <t>Yeah, I don't know what's happening. Maybe it's the stress of getting older. I will have</t>
     </r>
@@ -806,9 +670,6 @@
     </r>
   </si>
   <si>
-    <t>master</t>
-  </si>
-  <si>
     <t>mastered</t>
   </si>
   <si>
@@ -838,41 +699,6 @@
     </r>
   </si>
   <si>
-    <t>try</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By the end of the year, I will have </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>try</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> every weird food trend and will have eaten my weight in avocado toast. My stomach will be churning in protest.</t>
-    </r>
-  </si>
-  <si>
-    <t>survives</t>
-  </si>
-  <si>
     <t>survived</t>
   </si>
   <si>
@@ -902,9 +728,6 @@
     </r>
   </si>
   <si>
-    <t>reach</t>
-  </si>
-  <si>
     <t>reached</t>
   </si>
   <si>
@@ -934,38 +757,6 @@
     </r>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watched</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By next summer, I will have </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>watch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> so many cat videos that I'll be able to recite every cat fact known to man. My cat expertise will be unmatched.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">When we retire, we will have </t>
     </r>
@@ -992,9 +783,6 @@
     </r>
   </si>
   <si>
-    <t>finish</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">That's wonderful! I will have </t>
     </r>
@@ -1018,6 +806,304 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> my degree by then and will be able to pursue my passion for photography.</t>
+    </r>
+  </si>
+  <si>
+    <t>error type</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By 2030, I will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reduced my carbon footprint by 50% by using public transport and carpooling.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's amazing! I will have recycled all my plastic waste by then and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>won</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have convinced my family to do the same.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's great! By 2030, we will have saved millions of tons of plastic from entering our oceans. And by then, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have installed solar panels on my rooftop to generate clean energy.</t>
+    </r>
+  </si>
+  <si>
+    <t>traveled</t>
+  </si>
+  <si>
+    <r>
+      <t>By the time I'm 30, I will have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> travel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to every continent on Earth.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's ambitious! By then, I will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>had</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> learned five new languages and will have visited at least 20 countries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wow, that's impressive! By the time we're 40, we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have seen so many incredible sights and experiences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By the time my kids are in college, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have saved enough money for their tuition fees and will have paid off my own student loans.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's responsible planning! By then, I will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taught myself how to code and will have built a successful software company.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We'll be set for our kids' education. By the time they're grown up, we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">won </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have given them every opportunity to succeed.</t>
+    </r>
+  </si>
+  <si>
+    <t>We'll be doing great things in no time! By the time we're 50, we will have built successful careers and achieved our goals.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By the end of the year, I will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> finished my graduate degree and will have started my own business.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's exciting! By then, I will have published several papers in my field and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have received a promotion to a senior position.</t>
     </r>
   </si>
 </sst>
@@ -1421,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F494A93F-30D2-4F13-9930-45DD76EADA6E}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="122" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="C45" zoomScale="94" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1433,9 +1519,10 @@
     <col min="3" max="3" width="31.08203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,8 +1538,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1461,16 +1551,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2</f>
         <v>1</v>
@@ -1480,34 +1573,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B3:B47" si="0">IF(ISBLANK(A4), "", 1)</f>
+        <f t="shared" ref="B4:B45" si="0">IF(ISBLANK(A4), "", 1)</f>
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A7" si="1">A4</f>
         <v>2</v>
@@ -1517,16 +1616,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1536,16 +1638,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1555,16 +1660,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1573,16 +1681,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" ref="A9:A10" si="3">A8</f>
         <v>3</v>
@@ -1594,14 +1705,17 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
+      <c r="D9" s="1">
+        <v>-1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -1611,16 +1725,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1631,14 +1748,17 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
+      <c r="D11" s="1">
+        <v>-1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" ref="A12:A14" si="5">A11</f>
         <v>4</v>
@@ -1648,16 +1768,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -1667,16 +1790,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -1686,16 +1812,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1704,16 +1833,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ref="A16:A17" si="7">A15</f>
         <v>5</v>
@@ -1723,16 +1855,19 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -1742,16 +1877,19 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1760,16 +1898,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A21" si="9">A18</f>
         <v>6</v>
@@ -1779,16 +1920,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -1798,16 +1942,19 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -1819,14 +1966,17 @@
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
+      <c r="D21" s="1">
+        <v>-1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1835,16 +1985,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ref="A23:A24" si="11">A22</f>
         <v>7</v>
@@ -1854,16 +2007,19 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -1873,16 +2029,19 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
+      </c>
+      <c r="D24" s="1">
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -1891,16 +2050,19 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="D25" s="1">
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f>A25</f>
         <v>8</v>
@@ -1910,16 +2072,19 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -1928,16 +2093,19 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" ref="A28:A29" si="13">A27</f>
         <v>9</v>
@@ -1947,16 +2115,19 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -1966,16 +2137,19 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -1984,16 +2158,19 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ref="A31:A32" si="15">A30</f>
         <v>10</v>
@@ -2003,16 +2180,19 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="15"/>
         <v>10</v>
@@ -2022,16 +2202,19 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="D32" s="1">
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -2040,16 +2223,19 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ref="A34:A35" si="17">A33</f>
         <v>11</v>
@@ -2059,16 +2245,19 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="17"/>
         <v>11</v>
@@ -2078,16 +2267,19 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="D35" s="1">
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>12</v>
       </c>
@@ -2096,16 +2288,19 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ref="A37:A38" si="19">A36</f>
         <v>12</v>
@@ -2115,16 +2310,19 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -2134,16 +2332,19 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="D38" s="1">
+        <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -2152,16 +2353,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
+      </c>
+      <c r="D39" s="1">
+        <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" ref="A40:A41" si="21">A39</f>
         <v>13</v>
@@ -2171,16 +2375,19 @@
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="21"/>
         <v>13</v>
@@ -2190,16 +2397,19 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="D41" s="1">
+        <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>14</v>
       </c>
@@ -2208,16 +2418,19 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" ref="A43:A44" si="23">A42</f>
         <v>14</v>
@@ -2227,16 +2440,19 @@
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="D43" s="1">
+        <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="23"/>
         <v>14</v>
@@ -2246,16 +2462,19 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>15</v>
       </c>
@@ -2264,16 +2483,19 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="D45" s="1">
+        <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" ref="A46:A47" si="25">A45</f>
         <v>15</v>
@@ -2283,16 +2505,19 @@
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -2302,13 +2527,16 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
